--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\A-Challan-Pytest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Income-tax-receipt-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28275C2F-D9F9-4618-A5FE-C91FE6B2A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FBAFC3-79B9-4FDF-A76B-F6EA45A74B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>TIN</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>TDS on Salary for the month of Oct'24, Nov'24 &amp; Dec'24.</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MD Sultan Parvez</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>AKIB Uz Zaman</t>
+  </si>
+  <si>
+    <t>489</t>
   </si>
 </sst>
 </file>
@@ -381,49 +399,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="82.5703125" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="58.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="82.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D2" s="2">
         <v>500</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="2">
         <v>700</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
